--- a/data/xlsx/03072019.xlsx
+++ b/data/xlsx/03072019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4842D410-F45E-9549-A3F6-39A13A83A0B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDF021FC-F922-7142-85C9-F2F2503BB311}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,14 +451,16 @@
     <t>DWIGHT/PROSPECT</t>
   </si>
   <si>
-    <t>(FA-63-E) REPORTS BURGLARY, 2100 TANG CENTER. TAKEN: BLACK WINTER COAT, LOSS OF $140.00. SUSPECT: FW, 40, BROWN HAIR PULLED INTO A BUN, GREEN JACKET WITH BLACK SLEEVES WITH GRAY HOODY SWEATER UNDERNEATH, GRAY STRETCHED LEGGINGS, PINK SOCKS
-DOF: E/B DURANT</t>
+    <t>(FA-63-E) REPORTS BURGLARY, 2100 TANG CENTER. TAKEN: BLACK WINTER COAT, LOSS OF $140.00. SUSPECT: FW, 40, BROWN HAIR PULLED INTO A BUN, GREEN JACKET WITH BLACK SLEEVES WITH GRAY HOODY SWEATER UNDERNEATH, GRAY STRETCHED LEGGINGS, PINK SOCKS. DOF: E/B DURANT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -509,8 +511,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -892,7 +894,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43531</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -910,7 +912,7 @@
       <c r="F2">
         <v>37.868706000000003</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>-122.259184</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -918,7 +920,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43531</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -944,7 +946,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43531</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -970,7 +972,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>43531</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -996,7 +998,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>43531</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1022,7 +1024,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>43531</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1048,7 +1050,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>43531</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1074,7 +1076,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>43531</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1100,7 +1102,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>43531</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1126,7 +1128,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>43531</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1152,7 +1154,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>43531</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1178,7 +1180,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>43531</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1196,7 +1198,7 @@
       <c r="F13">
         <v>37.869556000000003</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>-122.259337</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -1204,7 +1206,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>43531</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1230,7 +1232,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>43531</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1256,7 +1258,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>43531</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1282,7 +1284,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>43531</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1308,7 +1310,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="224">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>43531</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1334,7 +1336,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>43531</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1360,7 +1362,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>43531</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1386,7 +1388,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>43531</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1412,7 +1414,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>43531</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1430,7 +1432,7 @@
       <c r="F22">
         <v>37.868706000000003</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>-122.259184</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1438,7 +1440,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>43531</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1464,7 +1466,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>43531</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1490,7 +1492,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>43531</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1516,7 +1518,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>43531</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1542,7 +1544,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>43531</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1568,7 +1570,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>43531</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1594,7 +1596,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>43531</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1620,7 +1622,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>43531</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1646,7 +1648,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>43531</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1672,7 +1674,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>43531</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1698,7 +1700,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>43531</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1724,7 +1726,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>43531</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1750,7 +1752,7 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>43531</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1776,7 +1778,7 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>43531</v>
       </c>
       <c r="B36" s="2" t="s">
